--- a/Model building/Correlation.xlsx
+++ b/Model building/Correlation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\MSc\Thesis\Model building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6AA95A-D925-4123-BD26-3046B9B55C87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB160282-E677-455E-B14E-1F9CD4B4182E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{18045555-480D-431E-A0D2-BB9BEAA3E72C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>FLSCHOOL</t>
   </si>
@@ -63,22 +63,10 @@
     <t>STRATIO</t>
   </si>
   <si>
-    <t>***</t>
+    <t>L1/within-level</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>L1 variable</t>
-  </si>
-  <si>
-    <t>L2 variable</t>
+    <t>L2/between-level</t>
   </si>
 </sst>
 </file>
@@ -137,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -168,6 +156,42 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -177,8 +201,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
@@ -490,35 +514,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A58B3D-BEDF-45EB-A637-22845002AEE5}">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F18"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="4"/>
     <col min="2" max="3" width="11.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="4" style="5" customWidth="1"/>
+    <col min="4" max="4" width="4" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="4" style="5" customWidth="1"/>
+    <col min="6" max="6" width="4" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="4" style="5" customWidth="1"/>
+    <col min="8" max="8" width="4" style="4" customWidth="1"/>
     <col min="9" max="9" width="11.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="4" style="5" customWidth="1"/>
+    <col min="10" max="10" width="4" style="4" customWidth="1"/>
     <col min="11" max="11" width="11.109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="4" style="5" customWidth="1"/>
+    <col min="12" max="12" width="4" style="4" customWidth="1"/>
     <col min="13" max="13" width="11.109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="4" style="5" customWidth="1"/>
+    <col min="14" max="14" width="4" style="4" customWidth="1"/>
     <col min="15" max="15" width="11.109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="4" style="5" customWidth="1"/>
+    <col min="16" max="16" width="4" style="4" customWidth="1"/>
     <col min="17" max="17" width="11.109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="4" style="5" customWidth="1"/>
+    <col min="18" max="18" width="4" style="4" customWidth="1"/>
     <col min="19" max="19" width="11.109375" style="5" customWidth="1"/>
-    <col min="20" max="20" width="4" style="5" customWidth="1"/>
+    <col min="20" max="20" width="4" style="4" customWidth="1"/>
     <col min="21" max="21" width="11.109375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.109375" style="5" customWidth="1"/>
     <col min="24" max="24" width="4" style="5" customWidth="1"/>
     <col min="25" max="25" width="11.109375" style="5" customWidth="1"/>
@@ -527,10 +551,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="22"/>
       <c r="C1" s="3">
         <v>1</v>
       </c>
@@ -580,25 +604,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="N2" s="17"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="P2" s="17"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="R2" s="17"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="T2" s="17"/>
       <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+      <c r="V2" s="18"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -612,29 +636,27 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D3" s="17"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="6"/>
+      <c r="P3" s="18"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="6"/>
+      <c r="R3" s="18"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="6"/>
+      <c r="T3" s="18"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="V3" s="17"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -648,19 +670,15 @@
         <v>2</v>
       </c>
       <c r="C4" s="6">
-        <v>-8.3000000000000004E-2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="D4" s="18"/>
       <c r="E4" s="6">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="17"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -668,25 +686,25 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="18"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="6"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="6"/>
+      <c r="R5" s="18"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="6"/>
+      <c r="T5" s="18"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="6"/>
+      <c r="V5" s="18"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -700,25 +718,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D6" s="17"/>
       <c r="E6" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F6" s="18"/>
       <c r="G6" s="1">
-        <v>4.7E-2</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="18"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="17"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -732,27 +744,23 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>-2E-3</v>
+      </c>
+      <c r="D7" s="17"/>
       <c r="E7" s="1">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>-1E-3</v>
+      </c>
+      <c r="F7" s="17"/>
       <c r="G7" s="1">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="18"/>
       <c r="I7" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J7" s="6"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J7" s="18"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="17"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -766,33 +774,27 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>-1E-3</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="D8" s="17"/>
       <c r="E8" s="1">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="17"/>
       <c r="G8" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="H8" s="17"/>
       <c r="I8" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>0.04</v>
+      </c>
+      <c r="J8" s="18"/>
       <c r="K8" s="1">
-        <v>-3.5999999999999997E-2</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="L8" s="18"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="17"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -806,43 +808,31 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D9" s="17"/>
       <c r="E9" s="1">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>-3.9E-2</v>
+      </c>
+      <c r="F9" s="18"/>
       <c r="G9" s="1">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="H9" s="18"/>
       <c r="I9" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J9" s="18"/>
       <c r="K9" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="L9" s="18"/>
       <c r="M9" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="N9" s="17"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="P9" s="17"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -850,25 +840,25 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="6"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="6"/>
+      <c r="T10" s="18"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="V10" s="17"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -882,45 +872,35 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D11" s="17"/>
       <c r="E11" s="1">
-        <v>0.155</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F11" s="18"/>
       <c r="G11" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>2.3E-2</v>
+      </c>
+      <c r="H11" s="18"/>
       <c r="I11" s="1">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>0.23</v>
+      </c>
+      <c r="J11" s="18"/>
       <c r="K11" s="1">
-        <v>-1E-3</v>
-      </c>
-      <c r="L11" s="1"/>
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="L11" s="17"/>
       <c r="M11" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="N11" s="1"/>
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="N11" s="17"/>
       <c r="O11" s="1">
-        <v>2.4E-2</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P11" s="18"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="R11" s="17"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -934,141 +914,113 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D12" s="17"/>
       <c r="E12" s="1">
-        <v>0.184</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>0.19</v>
+      </c>
+      <c r="F12" s="18"/>
       <c r="G12" s="1">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>-0.02</v>
+      </c>
+      <c r="H12" s="18"/>
       <c r="I12" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="1">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1">
-        <v>-1E-3</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="P12" s="18"/>
       <c r="Q12" s="1">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="R12" s="18"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="T12" s="17"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="9">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="2">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="2">
-        <v>-1E-3</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0.155</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="17"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="2">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="R14" s="19"/>
+      <c r="S14" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="20"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -1076,608 +1028,872 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="R15" s="17"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="T15" s="17"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="V15" s="17"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="3">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="17"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="N16" s="17"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="17"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="R16" s="17"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="T16" s="17"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="V16" s="17"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="3">
         <v>11</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>14</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
+        <v>15</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <v>16</v>
+      </c>
+      <c r="N17" s="3"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="P17" s="17"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="R17" s="17"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+      <c r="T17" s="17"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
+      <c r="V17" s="17"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="11">
         <v>11</v>
       </c>
-      <c r="C18" s="2">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="B18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="P18" s="17"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="R18" s="17"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="T18" s="17"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
+      <c r="V18" s="17"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="A19" s="11">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="P19" s="17"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="R19" s="17"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="T19" s="17"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
+      <c r="A20" s="11">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13">
+        <v>-0.46800000000000003</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.313</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="15">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G21" s="14">
+        <v>-0.20699999999999999</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C22" s="14"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>15</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="14">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="15">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G23" s="14">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="14">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C24" s="14"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="15"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>16</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="16">
+        <v>-0.52900000000000003</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="16">
+        <v>-0.35599999999999998</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="16">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="16">
+        <v>-0.438</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="16">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="L25" s="20"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G26" s="1"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="17"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G27" s="10"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="21"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:V2 G3:V3 C18:D18 I5:V5 G6:H9 I7:J9 K8:L9 M9:N9 Q10:V10 G11:P13 S13:T13 Q12:R13">
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E2:V2 G3:V3 C25:D25 I5:V5 G6:H9 I7:J9 K8:L9 M9:N9 Q10:V10 G11:P14 S14:T14 Q12:R14">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:D7">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:D7">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D8">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D8">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:D9">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:D9">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:D11">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:D11">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:D13">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:D12">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:D14">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:D13">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:F4">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F4">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:F6">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:F6">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:F7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:F7">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:F8">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:F8">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:F9">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:F9">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:F11">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:F11">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:F13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:F12">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:F14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:F13">
+        <color theme="0"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21 E20:E21 G21 C23 E23 G23 I23 E25 G25 I25 K25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="-1"/>
@@ -1686,16 +1902,6 @@
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0070C0"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
